--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D0363047-80BA-4C89-9BA8-18AD0F6FE590}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{6AC8C381-2FC6-4019-A671-76A55E7B1A13}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="10740" windowWidth="18915" xWindow="9390" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}" yWindow="6570"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Result</t>
   </si>
@@ -59,31 +59,49 @@
     <t>Quarterly Estimated Tax</t>
   </si>
   <si>
+    <t>New Tax Return Amount Due</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Personal Income Tax</t>
   </si>
   <si>
-    <t>Extension Payment</t>
-  </si>
-  <si>
-    <t>New Tax Return Amount Due</t>
-  </si>
-  <si>
-    <t>Joint</t>
+    <t>Fri Sep 08 12:42:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:42:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:43:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Extension Payments</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 13:03:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 13:04:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 13:04:15 EDT 2023</t>
+    <t>Fri Sep 08 16:35:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:35:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:35:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:13:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:13:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:13:29 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -460,7 +478,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,10 +510,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -504,41 +522,41 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>Result</t>
   </si>
@@ -102,6 +102,33 @@
   </si>
   <si>
     <t>Fri Sep 08 18:13:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:56:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:56:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:56:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:07:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:07:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:08:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:06:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:06:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:06:38 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -513,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -530,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -547,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>Result</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Mon Sep 11 14:06:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:30:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:30:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:30:56 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -540,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -557,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -574,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
   <si>
     <t>Result</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Tue Sep 26 21:30:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:39:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:39:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:39:55 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -549,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -566,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -583,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="43">
   <si>
     <t>Result</t>
   </si>
@@ -147,6 +147,24 @@
   </si>
   <si>
     <t>Fri Sep 29 11:39:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:37:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:37:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:37:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:45:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:45:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:46:10 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -558,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -575,7 +593,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -592,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="46">
   <si>
     <t>Result</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>Mon Oct 02 16:46:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:32:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:32:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:33:10 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -576,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -593,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -610,7 +619,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
   <si>
     <t>Result</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>Fri Oct 06 11:33:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:49:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:49:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:49:33 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -585,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -602,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -619,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="52">
   <si>
     <t>Result</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>Mon Oct 09 22:49:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:54:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:54:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:55:05 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -594,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -611,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -628,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{6AC8C381-2FC6-4019-A671-76A55E7B1A13}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{29A0376E-0041-4741-A3B4-90F92ABC8E3A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}" yWindow="-120"/>
+    <workbookView windowHeight="14565" windowWidth="18810" xWindow="3480" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}" yWindow="2460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Result</t>
   </si>
@@ -68,130 +68,28 @@
     <t>Personal Income Tax</t>
   </si>
   <si>
-    <t>Fri Sep 08 12:42:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 12:42:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 12:43:13 EDT 2023</t>
-  </si>
-  <si>
     <t>Extension Payments</t>
   </si>
   <si>
+    <t>Wed Nov 01 15:54:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:54:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:55:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>DONOTRUN</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Fri Sep 08 16:35:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 16:35:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 16:35:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 18:13:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 18:13:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 18:13:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sat Sep 09 20:56:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sat Sep 09 20:56:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sat Sep 09 20:56:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 13:07:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 13:07:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 13:08:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 14:06:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 14:06:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 14:06:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Sep 26 21:30:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Sep 26 21:30:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Sep 26 21:30:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:39:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:39:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:39:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:37:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:37:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:37:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:45:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:45:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:46:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:32:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:32:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:33:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:49:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:49:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:49:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:54:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:54:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:55:05 EDT 2023</t>
+    <t>Thu Dec 07 21:44:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:44:17 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -568,14 +466,14 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
     <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
@@ -603,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -620,13 +518,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -637,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Result</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Thu Dec 07 21:44:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:58:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:58:45 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -535,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Result</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>Wed Dec 20 12:58:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:07:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:07:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:34:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:34:39 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -507,7 +519,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -541,7 +553,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{29A0376E-0041-4741-A3B4-90F92ABC8E3A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBF87AE-96E7-4B0B-ADAD-48F4E39C47BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14565" windowWidth="18810" xWindow="3480" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}" yWindow="2460"/>
+    <workbookView xWindow="1680" yWindow="2580" windowWidth="24525" windowHeight="14010" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Result</t>
   </si>
@@ -71,50 +71,25 @@
     <t>Extension Payments</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:54:40 EDT 2023</t>
-  </si>
-  <si>
     <t>Wed Nov 01 15:54:52 EDT 2023</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:55:05 EDT 2023</t>
-  </si>
-  <si>
     <t>DONOTRUN</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:44:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:44:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:58:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:58:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:07:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:07:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:34:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:34:39 EST 2024</t>
+    <t>Thu Jan 25 17:48:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:48:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Estate Tax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,22 +132,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -189,10 +164,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -227,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -279,7 +254,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -390,21 +365,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -421,7 +396,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -473,28 +448,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1F8A3-6DEF-49A6-954D-D8228E68B4AC}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1F8A3-6DEF-49A6-954D-D8228E68B4AC}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -519,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -536,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -553,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -565,8 +540,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBF87AE-96E7-4B0B-ADAD-48F4E39C47BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A694366E-92DD-485A-9862-FE17502B9B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2580" windowWidth="24525" windowHeight="14010" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}"/>
+    <workbookView xWindow="2220" yWindow="2325" windowWidth="24525" windowHeight="14010" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Result</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Thu Jan 25 17:48:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Estate Tax</t>
   </si>
 </sst>
 </file>
@@ -456,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1F8A3-6DEF-49A6-954D-D8228E68B4AC}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,14 +537,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A694366E-92DD-485A-9862-FE17502B9B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A694366E-92DD-485A-9862-FE17502B9B66}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2325" windowWidth="24525" windowHeight="14010" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="2220" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}" yWindow="2325"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Result</t>
   </si>
@@ -81,12 +81,22 @@
   </si>
   <si>
     <t>Thu Jan 25 17:48:37 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:28:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:28:50 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,22 +139,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -161,10 +171,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -199,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -251,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -362,21 +372,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -393,7 +403,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -445,15 +455,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1F8A3-6DEF-49A6-954D-D8228E68B4AC}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1F8A3-6DEF-49A6-954D-D8228E68B4AC}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
@@ -461,12 +471,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -491,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -525,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -538,7 +548,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Result</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Sat Feb 03 23:28:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:56:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:56:48 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -535,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Result</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Sat Feb 17 22:56:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:16:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:17:43 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -541,7 +547,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A694366E-92DD-485A-9862-FE17502B9B66}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14A9DC2-AC34-4043-91C8-2B8EA81E2872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="2220" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}" yWindow="2325"/>
+    <workbookView xWindow="30270" yWindow="915" windowWidth="24525" windowHeight="14010" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Result</t>
   </si>
@@ -72,30 +72,6 @@
   </si>
   <si>
     <t>Wed Nov 01 15:54:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>DONOTRUN</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:48:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:48:37 EST 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:28:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:28:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:56:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:56:48 EST 2024</t>
   </si>
   <si>
     <t>Fri Mar 08 01:16:57 EST 2024</t>
@@ -108,7 +84,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,22 +126,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -183,10 +158,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -221,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -273,7 +248,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -384,21 +359,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -415,7 +390,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -467,28 +442,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1F8A3-6DEF-49A6-954D-D8228E68B4AC}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1F8A3-6DEF-49A6-954D-D8228E68B4AC}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -513,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -533,7 +508,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -547,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -560,7 +535,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14A9DC2-AC34-4043-91C8-2B8EA81E2872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E6F41FA3-B873-4C12-B0B4-17570055085A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="915" windowWidth="24525" windowHeight="14010" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="31110" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}" yWindow="615"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Result</t>
   </si>
@@ -78,12 +78,19 @@
   </si>
   <si>
     <t>Fri Mar 08 01:17:43 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:05:59 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,22 +133,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -158,10 +165,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -196,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -248,7 +255,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -359,21 +366,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -390,7 +397,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -442,15 +449,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1F8A3-6DEF-49A6-954D-D8228E68B4AC}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1F8A3-6DEF-49A6-954D-D8228E68B4AC}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -458,12 +465,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -490,9 +497,6 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
@@ -505,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -524,9 +528,6 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
@@ -535,7 +536,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E6F41FA3-B873-4C12-B0B4-17570055085A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04A3425-C937-4734-BB8B-DC4D20660BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="31110" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}" yWindow="615"/>
+    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Result</t>
   </si>
@@ -71,16 +71,10 @@
     <t>Extension Payments</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:54:52 EDT 2023</t>
-  </si>
-  <si>
     <t>Fri Mar 08 01:16:57 EST 2024</t>
   </si>
   <si>
     <t>Fri Mar 08 01:17:43 EST 2024</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Wed Mar 20 23:05:59 EDT 2024</t>
@@ -90,7 +84,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,22 +126,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -165,10 +158,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -203,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -255,7 +248,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -366,21 +359,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -397,7 +390,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -449,28 +442,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1F8A3-6DEF-49A6-954D-D8228E68B4AC}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1F8A3-6DEF-49A6-954D-D8228E68B4AC}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -495,7 +488,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -509,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -526,7 +522,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -536,7 +535,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04A3425-C937-4734-BB8B-DC4D20660BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C04A3425-C937-4734-BB8B-DC4D20660BF6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{72F4F832-BC24-45F9-BE9A-F34B8BAAEED1}" yWindow="1155"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Result</t>
   </si>
@@ -78,12 +78,25 @@
   </si>
   <si>
     <t>Wed Mar 20 23:05:59 EDT 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:07:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:08:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:08:23 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,22 +139,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -158,10 +171,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -196,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -248,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -359,21 +372,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -390,7 +403,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -442,15 +455,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1F8A3-6DEF-49A6-954D-D8228E68B4AC}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1F8A3-6DEF-49A6-954D-D8228E68B4AC}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -458,12 +471,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -488,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -505,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -522,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -535,7 +548,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Result</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Mon Apr 08 18:08:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:07:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:07:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:08:01 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -501,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -518,7 +527,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -535,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
   <si>
     <t>Result</t>
   </si>
@@ -99,6 +99,33 @@
   </si>
   <si>
     <t>Sun Oct 13 00:08:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 15:00:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 15:00:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 15:01:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:56:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:56:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:57:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:07:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:07:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:07:34 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -510,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -527,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -544,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>Result</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Fri Oct 25 12:07:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:46:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:47:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:47:14 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -537,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -554,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -571,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
   <si>
     <t>Result</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>Thu Nov 07 16:47:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:05:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:05:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:05:55 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -546,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -563,7 +572,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -580,7 +589,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
   <si>
     <t>Result</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>Tue Nov 12 18:05:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:11:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:11:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:12:05 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -555,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -572,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -589,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="42">
   <si>
     <t>Result</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>Tue Jan 28 22:12:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:22:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:23:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:23:16 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -564,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -581,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -598,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
   <si>
     <t>Result</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>Tue Feb 11 20:23:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:06:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:07:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:07:27 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -573,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -590,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -607,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/JointFilerSSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
   <si>
     <t>Result</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>Mon Feb 24 23:07:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:22:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:23:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:23:50 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -579,10 +591,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -596,10 +608,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -613,10 +625,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
